--- a/admin/src/main/resources/templates/files/名单导入模板.xlsx
+++ b/admin/src/main/resources/templates/files/名单导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18720" windowHeight="7500"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>号码*</t>
   </si>
   <si>
+    <t>客户名称</t>
+  </si>
+  <si>
     <t>职位</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
     <t>标签</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>回访结果</t>
   </si>
   <si>
@@ -49,6 +55,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>注：标签*回访结果*类型：回访记录：如有一项，其他项不得为空</t>
   </si>
 </sst>
 </file>
@@ -57,11 +66,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +95,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -95,7 +149,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,69 +164,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,15 +186,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +201,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -208,23 +231,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,25 +255,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,157 +327,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,15 +446,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,6 +464,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -468,21 +484,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,11 +512,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,137 +566,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +704,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,27 +1057,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="9" width="5.375" customWidth="1"/>
+    <col min="10" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="5.375" customWidth="1"/>
+    <col min="14" max="14" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1091,6 +1111,15 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/admin/src/main/resources/templates/files/名单导入模板.xlsx
+++ b/admin/src/main/resources/templates/files/名单导入模板.xlsx
@@ -57,7 +57,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>注：标签*回访结果*类型：回访记录：如有一项，其他项不得为空</t>
+    <t>注：标签+回访记录同时存在则说明存在回访记录</t>
   </si>
 </sst>
 </file>
@@ -102,8 +102,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,6 +112,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -118,14 +134,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -140,23 +171,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,14 +210,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,62 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,49 +255,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,133 +417,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +446,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,15 +479,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -484,6 +490,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,31 +522,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +537,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -554,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,133 +566,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1075,7 +1075,7 @@
     <col min="8" max="9" width="5.375" customWidth="1"/>
     <col min="10" max="12" width="9.375" customWidth="1"/>
     <col min="13" max="13" width="5.375" customWidth="1"/>
-    <col min="14" max="14" width="61" customWidth="1"/>
+    <col min="14" max="14" width="45.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:14">
@@ -1100,7 +1100,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1109,7 +1109,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
